--- a/static/import/pegawai/dpm.xlsx
+++ b/static/import/pegawai/dpm.xlsx
@@ -1239,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G33"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1270,58 +1270,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="96" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="3" ht="96" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="96" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1333,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -1341,10 +1318,10 @@
     </row>
     <row r="5" ht="96" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -1356,21 +1333,21 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="96" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1379,21 +1356,21 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="96" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1402,18 +1379,18 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="96" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1425,21 +1402,21 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="96" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -1448,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
@@ -1456,13 +1433,13 @@
     </row>
     <row r="10" ht="96" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -1471,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
@@ -1479,13 +1456,13 @@
     </row>
     <row r="11" ht="96" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
@@ -1502,13 +1479,13 @@
     </row>
     <row r="12" ht="96" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
@@ -1517,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
@@ -1525,10 +1502,10 @@
     </row>
     <row r="13" ht="96" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1540,21 +1517,21 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="96" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
@@ -1563,18 +1540,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="96" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1586,21 +1563,21 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="96" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
@@ -1609,18 +1586,18 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="96" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -1640,13 +1617,13 @@
     </row>
     <row r="18" ht="96" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
@@ -1655,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>19</v>
@@ -1663,10 +1640,10 @@
     </row>
     <row r="19" ht="96" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1678,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
@@ -1686,39 +1663,39 @@
     </row>
     <row r="20" ht="96" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="96" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -1727,15 +1704,15 @@
         <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="96" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1747,21 +1724,21 @@
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="96" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
@@ -1770,21 +1747,21 @@
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="96" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
@@ -1793,18 +1770,18 @@
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="96" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1824,13 +1801,13 @@
     </row>
     <row r="26" ht="96" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
@@ -1847,13 +1824,13 @@
     </row>
     <row r="27" ht="96" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
@@ -1862,21 +1839,21 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="96" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>17</v>
@@ -1885,21 +1862,21 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="96" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -1908,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>19</v>
@@ -1916,10 +1893,10 @@
     </row>
     <row r="30" ht="96" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1931,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>19</v>
@@ -1939,13 +1916,13 @@
     </row>
     <row r="31" ht="96" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
@@ -1962,13 +1939,13 @@
     </row>
     <row r="32" ht="96" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>17</v>
@@ -1985,10 +1962,10 @@
     </row>
     <row r="33" ht="96" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2003,6 +1980,29 @@
         <v>60</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="96" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
